--- a/IPD/teste intervalos.xlsx
+++ b/IPD/teste intervalos.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
   <si>
     <t>intervalo</t>
+  </si>
+  <si>
+    <t>ordem</t>
   </si>
   <si>
     <t>a</t>
@@ -357,85 +360,118 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
